--- a/document/게시판api설계.xlsx
+++ b/document/게시판api설계.xlsx
@@ -24,222 +24,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+  <si>
+    <t>EndPoints</t>
+  </si>
   <si>
     <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>METHOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndPoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIEW</t>
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
   </si>
   <si>
     <t>루트 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 페이지로 이동</t>
   </si>
   <si>
     <t>/error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 페이지</t>
   </si>
   <si>
     <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지</t>
   </si>
   <si>
     <t>/sign-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
   </si>
   <si>
     <t>/articles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 페이지</t>
   </si>
   <si>
     <t>/articles/{article-id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에러 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>게시글 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/articles/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/serach</t>
   </si>
   <si>
     <t>게시판 검색 전용 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/articles/hashtag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/serach/hashtag</t>
   </si>
   <si>
     <t>게시판 해시태그 검색 전용 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 데이터가 전달 될지 설계</t>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/sign-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 데이터가 전달될지 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,pw,email,{nickname},etc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입</t>
+  </si>
+  <si>
+    <t>id, pw, email, (nickname), etc.</t>
+  </si>
+  <si>
+    <t>/api/login</t>
   </si>
   <si>
     <t>로그인 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, pw</t>
   </si>
   <si>
     <t>/api/articles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 (전체) 리스트 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필터: 제목,본문,id,글쓴이,해시태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/articles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 (전체)리스트 조회</t>
+  </si>
+  <si>
+    <t>필터: 제목, 본문, id, 글쓴이, 해시태그</t>
   </si>
   <si>
     <t>/api/articles/{article-id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>게시글 단일 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 추가(쓰기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목,본문,id,해시태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 등록</t>
+  </si>
+  <si>
+    <t>제목, 본문, id, 해시태그</t>
+  </si>
+  <si>
+    <t>PUT / PATCH</t>
   </si>
   <si>
     <t>게시글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 본문, 해시태그</t>
+  </si>
+  <si>
+    <t>DELETE</t>
   </si>
   <si>
     <t>게시글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT / PATCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글ID</t>
+  </si>
+  <si>
+    <t>/api/articleComments</t>
+  </si>
+  <si>
+    <t>댓글 (전체)리스트 조회</t>
+  </si>
+  <si>
+    <t>/api/articleComments/{article-comment-id}</t>
+  </si>
+  <si>
+    <t>댓글 단일 조회</t>
+  </si>
+  <si>
+    <t>/api/articles/{article-id}/articlecomments</t>
+  </si>
+  <si>
+    <t>특정 게시글과 관련된 댓글 리스트 조회</t>
+  </si>
+  <si>
+    <t>필터: 본문</t>
+  </si>
+  <si>
+    <t>/api/articles/{article-id}/articleComments/{article-comment-id}</t>
+  </si>
+  <si>
+    <t>특정 게시글과 관련된 댓글 단일 조회</t>
+  </si>
+  <si>
+    <t>/api/articles/{article-id}/articleComments</t>
+  </si>
+  <si>
+    <t>댓글 등록</t>
+  </si>
+  <si>
+    <t>본문, id</t>
+  </si>
+  <si>
+    <t>댓글 수정</t>
+  </si>
+  <si>
+    <t>본문</t>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
+  </si>
+  <si>
+    <t>댓글의 id</t>
   </si>
 </sst>
 </file>
@@ -264,7 +237,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -273,7 +246,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -281,12 +254,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -298,11 +283,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -311,7 +296,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -319,17 +304,17 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -339,7 +324,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -347,12 +332,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -361,18 +346,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -383,42 +368,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -713,252 +716,358 @@
     <col min="5" max="5" width="30.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="16"/>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="16"/>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="16"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="16"/>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E12" t="s">
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+      <c r="E14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+      <c r="D19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="16"/>
+      <c r="B21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="16"/>
+      <c r="B24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="16"/>
+      <c r="B25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>53</v>
+      <c r="D25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="17"/>
+      <c r="B26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A13:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
